--- a/2222.xlsx
+++ b/2222.xlsx
@@ -295,6 +295,4167 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <stockChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </stockChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$3:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물품</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$3:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물품</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$B$3:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$3:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$4:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물품</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물품</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$3:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물품</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$3:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$3:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물품</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$3:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$3:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물품</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$3:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$3:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물품</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$3:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$3:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>품목</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이(%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>한국가 일본의 물가 차이</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$3:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$3:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>품목</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>물가 차이(%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <numFmt formatCode="0.##&quot;%&quot;" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <areaChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </areaChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <radarChart>
+        <radarStyle val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </radarChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Comparison of KRW and JPY to KRW values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'결과'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$B$2:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'결과'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'결과'!$A$2:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'결과'!$C$2:$C$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Name</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="11" name="Chart 11"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="12" name="Chart 12"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="13" name="Chart 13"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="14" name="Chart 14"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="15" name="Chart 15"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="16" name="Chart 16"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="17" name="Chart 17"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="18" name="Chart 18"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="19" name="Chart 19"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="20" name="Chart 20"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="21" name="Chart 21"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="22" name="Chart 22"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="23" name="Chart 23"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="24" name="Chart 24"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="25" name="Chart 25"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="26" name="Chart 26"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="27" name="Chart 27"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -899,7 +5060,7 @@
         <v>1000</v>
       </c>
       <c r="C3" s="18" t="n">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4">
@@ -912,7 +5073,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="18" t="n">
-        <v>903</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5">
@@ -925,7 +5086,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="18" t="n">
-        <v>912</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6">
@@ -938,7 +5099,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="18" t="n">
-        <v>921</v>
+        <v>906</v>
       </c>
     </row>
     <row r="7">
@@ -951,7 +5112,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="18" t="n">
-        <v>929</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8">
@@ -964,7 +5125,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="18" t="n">
-        <v>938</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +5138,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="18" t="n">
-        <v>947</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10">
@@ -990,7 +5151,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="18" t="n">
-        <v>956</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11">
@@ -1003,7 +5164,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="18" t="n">
-        <v>965</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12">
@@ -1016,7 +5177,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="18" t="n">
-        <v>974</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13">
@@ -1029,7 +5190,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="18" t="n">
-        <v>983</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14">
@@ -1042,7 +5203,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="18" t="n">
-        <v>992</v>
+        <v>977</v>
       </c>
     </row>
     <row r="15">
@@ -1055,7 +5216,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="18" t="n">
-        <v>1001</v>
+        <v>986</v>
       </c>
     </row>
     <row r="16">
@@ -1068,7 +5229,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="18" t="n">
-        <v>1010</v>
+        <v>994</v>
       </c>
     </row>
     <row r="17">
@@ -1081,7 +5242,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>1019</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="18">
@@ -1094,7 +5255,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="18" t="n">
-        <v>1028</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19">
@@ -1107,7 +5268,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="18" t="n">
-        <v>1037</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="20">
@@ -1120,7 +5281,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="18" t="n">
-        <v>1046</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +5293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1188,10 +5349,10 @@
         </is>
       </c>
       <c r="B3" s="18" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C3" s="19" t="n">
-        <v>10.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1201,10 +5362,10 @@
         </is>
       </c>
       <c r="B4" s="18" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C4" s="19" t="n">
-        <v>9.789999999999999</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="5">
@@ -1214,10 +5375,10 @@
         </is>
       </c>
       <c r="B5" s="18" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C5" s="19" t="n">
-        <v>8.98</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="6">
@@ -1227,10 +5388,10 @@
         </is>
       </c>
       <c r="B6" s="18" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C6" s="19" t="n">
-        <v>8.18</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="7">
@@ -1240,10 +5401,10 @@
         </is>
       </c>
       <c r="B7" s="18" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C7" s="19" t="n">
-        <v>7.47</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1253,10 +5414,10 @@
         </is>
       </c>
       <c r="B8" s="18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C8" s="19" t="n">
-        <v>6.67</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="9">
@@ -1266,10 +5427,10 @@
         </is>
       </c>
       <c r="B9" s="18" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C9" s="19" t="n">
-        <v>5.86</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="10">
@@ -1279,10 +5440,10 @@
         </is>
       </c>
       <c r="B10" s="18" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C10" s="19" t="n">
-        <v>5.06</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="11">
@@ -1292,10 +5453,10 @@
         </is>
       </c>
       <c r="B11" s="18" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C11" s="19" t="n">
-        <v>4.27</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="12">
@@ -1305,10 +5466,10 @@
         </is>
       </c>
       <c r="B12" s="18" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C12" s="19" t="n">
-        <v>3.47</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="13">
@@ -1318,10 +5479,10 @@
         </is>
       </c>
       <c r="B13" s="18" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C13" s="19" t="n">
-        <v>2.67</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="14">
@@ -1331,10 +5492,10 @@
         </is>
       </c>
       <c r="B14" s="18" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C14" s="19" t="n">
-        <v>1.88</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="15">
@@ -1344,10 +5505,10 @@
         </is>
       </c>
       <c r="B15" s="18" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19" t="n">
-        <v>1.09</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="16">
@@ -1357,10 +5518,10 @@
         </is>
       </c>
       <c r="B16" s="18" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C16" s="19" t="n">
-        <v>0.3</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="17">
@@ -1370,10 +5531,10 @@
         </is>
       </c>
       <c r="B17" s="18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17" s="19" t="n">
-        <v>0.49</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="18">
@@ -1383,10 +5544,10 @@
         </is>
       </c>
       <c r="B18" s="18" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C18" s="19" t="n">
-        <v>1.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
@@ -1396,10 +5557,10 @@
         </is>
       </c>
       <c r="B19" s="18" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C19" s="19" t="n">
-        <v>2.07</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="20">
@@ -1409,13 +5570,14 @@
         </is>
       </c>
       <c r="B20" s="18" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C20" s="19" t="n">
-        <v>2.85</v>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>